--- a/Bikeshop Data.xlsx
+++ b/Bikeshop Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F02B819-743F-40CA-8A37-7521574EE63D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ED5B7F-705E-4522-8A6F-75100AFAF9B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="223">
   <si>
     <t>Kunde</t>
   </si>
@@ -460,9 +460,6 @@
     <t>Gold</t>
   </si>
   <si>
-    <t>[leer]</t>
-  </si>
-  <si>
     <t>Bronze</t>
   </si>
   <si>
@@ -691,14 +688,14 @@
     <t>Lager</t>
   </si>
   <si>
-    <t>Händler</t>
+    <t>Kein Abo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,8 +710,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +728,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -753,6 +763,14 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,7 +1078,7 @@
     <col min="16" max="16" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="3"/>
     <col min="18" max="18" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.85546875" style="2" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="3"/>
     <col min="22" max="22" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1076,11 +1094,11 @@
     <col min="32" max="32" width="9.140625" style="3"/>
     <col min="33" max="33" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="H1" s="1"/>
       <c r="K1" s="1"/>
@@ -1089,7 +1107,7 @@
       <c r="X1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1119,7 +1137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>1</v>
@@ -1212,8 +1230,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
@@ -1227,6 +1245,9 @@
       <c r="F5" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
       <c r="M5" s="2" t="s">
         <v>110</v>
       </c>
@@ -1239,34 +1260,46 @@
       <c r="P5" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
       <c r="S5" s="2" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="T5" s="2">
-        <f>IF(S5="[leer]",0,IF(S5="Gold",50,IF(S5="Silber",30,IF(S5="Bronze",10,"error"))))</f>
+        <f>IF(S5="Kein Abo",0,IF(S5="Gold",50,IF(S5="Silber",30,IF(S5="Bronze",10,"error"))))</f>
         <v>0</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>219</v>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="AJ5" s="6"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1280,6 +1313,9 @@
       <c r="F6" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="G6" s="11">
+        <v>4</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>111</v>
       </c>
@@ -1292,37 +1328,46 @@
       <c r="P6" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="R6" s="2">
+        <v>2</v>
+      </c>
       <c r="S6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" ref="T6:T33" si="1">IF(S6="[leer]",0,IF(S6="Gold",50,IF(S6="Silber",30,IF(S6="Bronze",10,"error"))))</f>
-        <v>50</v>
+        <f t="shared" ref="T6:T33" si="1">IF(S6="Kein Abo",0,IF(S6="Gold",50,IF(S6="Silber",30,IF(S6="Bronze",10,"error"))))</f>
+        <v>10</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>79</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="AE6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>2</v>
       </c>
       <c r="AH6" s="2" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="AI6" s="2" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="AJ6" s="6"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>58</v>
       </c>
@@ -1336,6 +1381,9 @@
       <c r="F7" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="G7" s="11">
+        <v>2</v>
+      </c>
       <c r="M7" s="2" t="s">
         <v>112</v>
       </c>
@@ -1348,37 +1396,47 @@
       <c r="P7" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="R7" s="2">
+        <v>3</v>
+      </c>
       <c r="S7" s="4" t="s">
         <v>147</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB7" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>3</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="AJ7" s="6"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK7" s="4"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>59</v>
       </c>
@@ -1392,6 +1450,9 @@
       <c r="F8" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
       <c r="M8" s="2" t="s">
         <v>113</v>
       </c>
@@ -1404,37 +1465,46 @@
       <c r="P8" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="R8" s="4">
+        <v>4</v>
+      </c>
       <c r="S8" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>60</v>
       </c>
@@ -1448,6 +1518,9 @@
       <c r="F9" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="G9" s="11">
+        <v>2</v>
+      </c>
       <c r="M9" s="2" t="s">
         <v>114</v>
       </c>
@@ -1460,34 +1533,30 @@
       <c r="P9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T9" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="S9" s="4"/>
       <c r="Z9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB9" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AC9" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>4</v>
       </c>
       <c r="AJ9" s="6"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
@@ -1501,6 +1570,9 @@
       <c r="F10" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
       <c r="M10" s="2" t="s">
         <v>115</v>
       </c>
@@ -1513,37 +1585,32 @@
       <c r="P10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z10" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB10" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="2" t="str">
+        <f>"("&amp;AG5&amp;","&amp;"'"&amp;AH5&amp;"'"&amp;",'"&amp;AI5&amp;"'"&amp;"),"</f>
+        <v>(1,'Kunde','Kunde'),</v>
+      </c>
+      <c r="AI10" s="4"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
@@ -1557,6 +1624,9 @@
       <c r="F11" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="G11" s="11">
+        <v>2</v>
+      </c>
       <c r="M11" s="2" t="s">
         <v>116</v>
       </c>
@@ -1569,37 +1639,34 @@
       <c r="P11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T11" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="S11" s="4"/>
       <c r="Z11" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB11" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC11" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>222</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>3</v>
+      </c>
+      <c r="AH11" s="2" t="str">
+        <f t="shared" ref="AH11:AH13" si="2">"("&amp;AG6&amp;","&amp;"'"&amp;AH6&amp;"'"&amp;",'"&amp;AI6&amp;"'"&amp;"),"</f>
+        <v>(2,'Werkstatt','Werkstatt'),</v>
+      </c>
+      <c r="AI11" s="4"/>
       <c r="AJ11" s="6"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK11" s="4"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>63</v>
       </c>
@@ -1613,6 +1680,9 @@
       <c r="F12" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
       <c r="M12" s="2" t="s">
         <v>117</v>
       </c>
@@ -1625,34 +1695,32 @@
       <c r="P12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(3,'Abholbereit','Lager'),</v>
       </c>
       <c r="AJ12" s="6"/>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AL12" s="4"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>64</v>
       </c>
@@ -1666,6 +1734,9 @@
       <c r="F13" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
       <c r="M13" s="2" t="s">
         <v>118</v>
       </c>
@@ -1678,37 +1749,31 @@
       <c r="P13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB13" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>(4,'Service','Werkstatt'),</v>
       </c>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>65</v>
       </c>
@@ -1722,6 +1787,9 @@
       <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="G14" s="11">
+        <v>2</v>
+      </c>
       <c r="M14" s="2" t="s">
         <v>119</v>
       </c>
@@ -1734,34 +1802,29 @@
       <c r="P14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T14" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="S14" s="4"/>
       <c r="Z14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB14" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>1</v>
       </c>
       <c r="AJ14" s="6"/>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
@@ -1775,6 +1838,9 @@
       <c r="F15" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="G15" s="11">
+        <v>4</v>
+      </c>
       <c r="M15" s="2" t="s">
         <v>120</v>
       </c>
@@ -1787,37 +1853,27 @@
       <c r="P15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T15" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
       <c r="Z15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AB15" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AC15" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>1</v>
       </c>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
@@ -1831,6 +1887,9 @@
       <c r="F16" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
       <c r="M16" s="2" t="s">
         <v>121</v>
       </c>
@@ -1843,34 +1902,29 @@
       <c r="P16" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z16" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="AE16" s="12">
+        <v>4</v>
       </c>
       <c r="AJ16" s="6"/>
-    </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>68</v>
       </c>
@@ -1884,6 +1938,9 @@
       <c r="F17" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
       <c r="M17" s="2" t="s">
         <v>122</v>
       </c>
@@ -1896,34 +1953,28 @@
       <c r="P17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z17" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB17" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>1</v>
       </c>
       <c r="AJ17" s="6"/>
-    </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1937,6 +1988,9 @@
       <c r="F18" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
       <c r="M18" s="2" t="s">
         <v>123</v>
       </c>
@@ -1949,37 +2003,27 @@
       <c r="P18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB18" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC18" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="AE18" s="12">
+        <v>1</v>
       </c>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
@@ -1993,6 +2037,9 @@
       <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="G19" s="11">
+        <v>2</v>
+      </c>
       <c r="M19" s="2" t="s">
         <v>124</v>
       </c>
@@ -2005,34 +2052,30 @@
       <c r="P19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T19" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="S19" s="4"/>
       <c r="Z19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AB19" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>4</v>
       </c>
       <c r="AJ19" s="6"/>
-    </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+    </row>
+    <row r="20" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
@@ -2046,6 +2089,9 @@
       <c r="F20" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="G20" s="11">
+        <v>2</v>
+      </c>
       <c r="M20" s="2" t="s">
         <v>125</v>
       </c>
@@ -2058,34 +2104,30 @@
       <c r="P20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T20" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="S20" s="4"/>
       <c r="Z20" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AB20" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH20" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>4</v>
       </c>
       <c r="AJ20" s="6"/>
-    </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+    </row>
+    <row r="21" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
@@ -2099,6 +2141,9 @@
       <c r="F21" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="G21" s="11">
+        <v>3</v>
+      </c>
       <c r="M21" s="2" t="s">
         <v>126</v>
       </c>
@@ -2111,37 +2156,28 @@
       <c r="P21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T21" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+      <c r="S21" s="4"/>
       <c r="Z21" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC21" s="4" t="s">
         <v>79</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="AE21" s="12">
+        <v>1</v>
       </c>
       <c r="AJ21" s="6"/>
     </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>73</v>
       </c>
@@ -2155,6 +2191,9 @@
       <c r="F22" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="G22" s="11">
+        <v>4</v>
+      </c>
       <c r="M22" s="2" t="s">
         <v>127</v>
       </c>
@@ -2167,34 +2206,28 @@
       <c r="P22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T22" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
       <c r="Z22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB22" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>1</v>
       </c>
       <c r="AJ22" s="6"/>
-    </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AL22" s="4"/>
+    </row>
+    <row r="23" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>74</v>
       </c>
@@ -2208,6 +2241,9 @@
       <c r="F23" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
       <c r="M23" s="2" t="s">
         <v>128</v>
       </c>
@@ -2220,34 +2256,29 @@
       <c r="P23" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z23" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB23" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH23" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="AE23" s="12">
+        <v>4</v>
       </c>
       <c r="AJ23" s="6"/>
-    </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+    </row>
+    <row r="24" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2261,6 +2292,9 @@
       <c r="F24" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="G24" s="11">
+        <v>2</v>
+      </c>
       <c r="M24" s="2" t="s">
         <v>129</v>
       </c>
@@ -2273,37 +2307,29 @@
       <c r="P24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="4"/>
+      <c r="Z24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="T24" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB24" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="AD24" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI24" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="AE24" s="12">
+        <v>3</v>
       </c>
       <c r="AJ24" s="6"/>
-    </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK24" s="4"/>
+    </row>
+    <row r="25" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>76</v>
       </c>
@@ -2317,6 +2343,9 @@
       <c r="F25" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="G25" s="11">
+        <v>2</v>
+      </c>
       <c r="M25" s="2" t="s">
         <v>130</v>
       </c>
@@ -2329,34 +2358,30 @@
       <c r="P25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T25" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="S25" s="4"/>
       <c r="Z25" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AB25" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AC25" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>221</v>
+        <v>210</v>
+      </c>
+      <c r="AE25" s="12">
+        <v>4</v>
       </c>
       <c r="AJ25" s="6"/>
-    </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+    </row>
+    <row r="26" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2370,6 +2395,9 @@
       <c r="F26" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="G26" s="11">
+        <v>2</v>
+      </c>
       <c r="M26" s="2" t="s">
         <v>131</v>
       </c>
@@ -2382,37 +2410,28 @@
       <c r="P26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S26" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T26" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="S26" s="4"/>
       <c r="Z26" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB26" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI26" s="2" t="s">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="AE26" s="12">
+        <v>1</v>
       </c>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
@@ -2426,6 +2445,9 @@
       <c r="F27" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
       <c r="M27" s="2" t="s">
         <v>132</v>
       </c>
@@ -2438,37 +2460,28 @@
       <c r="P27" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AB27" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH27" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI27" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>3</v>
       </c>
       <c r="AJ27" s="6"/>
-    </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK27" s="4"/>
+    </row>
+    <row r="28" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>79</v>
       </c>
@@ -2482,6 +2495,9 @@
       <c r="F28" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="G28" s="11">
+        <v>4</v>
+      </c>
       <c r="M28" s="2" t="s">
         <v>133</v>
       </c>
@@ -2494,34 +2510,28 @@
       <c r="P28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T28" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
       <c r="Z28" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AB28" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AC28" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH28" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="AE28" s="12">
+        <v>1</v>
       </c>
       <c r="AJ28" s="6"/>
-    </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AL28" s="4"/>
+    </row>
+    <row r="29" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2535,6 +2545,9 @@
       <c r="F29" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
       <c r="M29" s="2" t="s">
         <v>134</v>
       </c>
@@ -2547,34 +2560,29 @@
       <c r="P29" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="T29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="Z29" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA29" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB29" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AC29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH29" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="AE29" s="12">
+        <v>3</v>
       </c>
       <c r="AJ29" s="6"/>
-    </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+    </row>
+    <row r="30" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>81</v>
       </c>
@@ -2588,6 +2596,9 @@
       <c r="F30" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="G30" s="11">
+        <v>4</v>
+      </c>
       <c r="M30" s="2" t="s">
         <v>135</v>
       </c>
@@ -2600,37 +2611,27 @@
       <c r="P30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T30" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
       <c r="Z30" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AB30" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AC30" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH30" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI30" s="2" t="s">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="AE30" s="12">
+        <v>1</v>
       </c>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>82</v>
       </c>
@@ -2644,6 +2645,9 @@
       <c r="F31" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="G31" s="11">
+        <v>4</v>
+      </c>
       <c r="M31" s="2" t="s">
         <v>136</v>
       </c>
@@ -2656,34 +2660,30 @@
       <c r="P31" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="S31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T31" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
       <c r="Z31" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA31" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB31" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AC31" s="4" t="s">
         <v>79</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH31" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+      <c r="AE31" s="12">
+        <v>4</v>
       </c>
       <c r="AJ31" s="6"/>
-    </row>
-    <row r="32" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+    </row>
+    <row r="32" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="G32"/>
       <c r="M32" s="2" t="s">
         <v>141</v>
       </c>
@@ -2695,22 +2695,18 @@
       </c>
       <c r="P32" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="T32" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
+      <c r="AE32" s="12">
+        <v>1</v>
+      </c>
       <c r="AJ32" s="6"/>
     </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>81</v>
       </c>
@@ -2723,6 +2719,9 @@
       <c r="F33" s="2" t="s">
         <v>144</v>
       </c>
+      <c r="G33" s="11">
+        <v>3</v>
+      </c>
       <c r="M33" s="2" t="s">
         <v>135</v>
       </c>
@@ -2735,38 +2734,448 @@
       <c r="P33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="S33" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="T33" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
+      <c r="S33" s="4"/>
       <c r="Z33" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA33" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB33" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC33" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH33" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="AE33" s="12">
+        <v>3</v>
       </c>
       <c r="AJ33" s="6"/>
-    </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="AK33" s="4"/>
+    </row>
+    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
       <c r="AG34" s="7"/>
+    </row>
+    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="str">
+        <f>"("&amp;"'"&amp;C5&amp;"'"&amp;",'"&amp;D5&amp;"'"&amp;","&amp;"'"&amp;E5&amp;"','"&amp;F5&amp;"'"&amp;","&amp;G5&amp;"),"</f>
+        <v>('Müller','Lucy','Müller.Lucy@web.de','nsfghsfghsfg',1),</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="M35" s="2" t="str">
+        <f>"("&amp;"'"&amp;M5&amp;"'"&amp;",'"&amp;N5&amp;"'"&amp;","&amp;"'"&amp;O5&amp;"','"&amp;P5&amp;"'"&amp;"),"</f>
+        <v>('Rottenkolberstrasse 5','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA35" s="2" t="str">
+        <f>"("&amp;"'"&amp;Z5&amp;"'"&amp;","&amp;"'"&amp;AA5&amp;"'"&amp;",'"&amp;AB5&amp;"','"&amp;AC5&amp;"','"&amp;AD5&amp;"',"&amp;AE5&amp;"),"</f>
+        <v>('Cube','ST2','613XSTQFR94494','Rot','Kinderrad',1),</v>
+      </c>
+    </row>
+    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="str">
+        <f>"("&amp;"'"&amp;C6&amp;"'"&amp;",'"&amp;D6&amp;"'"&amp;","&amp;"'"&amp;E6&amp;"','"&amp;F6&amp;"'"&amp;","&amp;G6&amp;"),"</f>
+        <v>('Schmid','Ella','Schmid.Ella@web.de','fghfgbsf',4),</v>
+      </c>
+      <c r="M36" s="2" t="str">
+        <f t="shared" ref="M36:M63" si="3">"("&amp;"'"&amp;M6&amp;"'"&amp;",'"&amp;N6&amp;"'"&amp;","&amp;"'"&amp;O6&amp;"','"&amp;P6&amp;"'"&amp;"),"</f>
+        <v>('Äußere Rottach 23','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA36" s="2" t="str">
+        <f t="shared" ref="AA36:AA63" si="4">"("&amp;"'"&amp;Z6&amp;"'"&amp;","&amp;"'"&amp;AA6&amp;"'"&amp;",'"&amp;AB6&amp;"','"&amp;AC6&amp;"','"&amp;AD6&amp;"',"&amp;AE6&amp;"),"</f>
+        <v>('Bulls','Rockville Disc','16237YYVAOL12164','Weiß','Rennrad',1),</v>
+      </c>
+    </row>
+    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="str">
+        <f t="shared" ref="C37:C63" si="5">"("&amp;"'"&amp;C7&amp;"'"&amp;",'"&amp;D7&amp;"'"&amp;","&amp;"'"&amp;E7&amp;"','"&amp;F7&amp;"'"&amp;","&amp;G7&amp;"),"</f>
+        <v>('Weber','Amy','Weber.Amy@web.de','adfvdafvd',2),</v>
+      </c>
+      <c r="M37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Hoffeldweg 2','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA37" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Cube','Kato Base 29','14378SXEMMO59152','Gelb','Fatbike',3),</v>
+      </c>
+    </row>
+    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Fischer','Finja','Fischer.Finja@web.de','adfvdfvsdf',3),</v>
+      </c>
+      <c r="M38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Weiherstraße 4','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="S38" s="2" t="str">
+        <f>"("&amp;R5&amp;","&amp;"'"&amp;S5&amp;"'"&amp;",'"&amp;T5&amp;"'"&amp;"),"</f>
+        <v>(1,'Kein Abo','0'),</v>
+      </c>
+      <c r="AA38" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Ghost','Raptor Disc','8680WMYWRW9758','Silber','Dirtbike',1),</v>
+      </c>
+    </row>
+    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Wagner','Amelie','Wagner.Amelie@web.de','dfvsdfvsdfv',2),</v>
+      </c>
+      <c r="M39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Robert-Koch-Weg 42','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="S39" s="2" t="str">
+        <f t="shared" ref="S39:S40" si="6">"("&amp;R6&amp;","&amp;"'"&amp;S6&amp;"'"&amp;",'"&amp;T6&amp;"'"&amp;"),"</f>
+        <v>(2,'Bronze','10'),</v>
+      </c>
+      <c r="AA39" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Bergsteiger','Aim Pro','16060XOMTDE9750','Schwarz','Handbike',4),</v>
+      </c>
+    </row>
+    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Schäfer','Luise','Schäfer.Luise@web.de','dfvsdvfsdvf',1),</v>
+      </c>
+      <c r="M40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Hohe Gerst 98','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="S40" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>(3,'Silber','30'),</v>
+      </c>
+      <c r="AA40" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Hercules','Home','30219OQQCUO4485','Grün','Hardtrail',1),</v>
+      </c>
+    </row>
+    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Bauer','Frieda','Bauer.Frieda@web.de','hshgzjjfsj',2),</v>
+      </c>
+      <c r="M41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Mühlweg 74','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="S41" s="2" t="str">
+        <f>"("&amp;R8&amp;","&amp;"'"&amp;S8&amp;"'"&amp;",'"&amp;T8&amp;"'"&amp;"),"</f>
+        <v>(4,'Gold','50'),</v>
+      </c>
+      <c r="AA41" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Cube','E-ST 100','70437BCLRUD46304','Schwarz','Fully',3),</v>
+      </c>
+    </row>
+    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Koch','Lukas','Koch.Lukas@web.de','frgnjz',1),</v>
+      </c>
+      <c r="M42" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Wartenseestrasse 63','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA42" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Cube','St120','98466RGDQVN99286','Rot','E-Bike',1),</v>
+      </c>
+    </row>
+    <row r="43" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Richter','Konstantin','Richter.Konstantin@web.de','sfmhzk',1),</v>
+      </c>
+      <c r="M43" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Memminger Strasse 26','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA43" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Bergsteiger','Rockville Disc','79361DSNCRX45745','Schwarz','Fully',1),</v>
+      </c>
+    </row>
+    <row r="44" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Klein','David','Klein.David@web.de','ysdfgmzkya',2),</v>
+      </c>
+      <c r="M44" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Kantstrasse 29','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA44" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Cube','Ground Control 1','45425DRLEME84297','Weiß','Dirtbike',1),</v>
+      </c>
+    </row>
+    <row r="45" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Wolf','Katharina','Wolf.Katharina@web.de','sfgm ya',4),</v>
+      </c>
+      <c r="M45" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Rottachstraße 932','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA45" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Ghost','Kodiak','33409GHTIZM2817','Schwarz','Handbike',1),</v>
+      </c>
+    </row>
+    <row r="46" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C46" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Schröder','Oskar','Schröder.Oskar@web.de','sfgrmks',1),</v>
+      </c>
+      <c r="M46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Schlössleweg 9','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA46" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Cube','Aim Pro','15635UHUTMH98150','Rot','Fully',4),</v>
+      </c>
+    </row>
+    <row r="47" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Neumann','Julia','Neumann.Julia@web.de','sgfrmzksf',1),</v>
+      </c>
+      <c r="M47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Madlenerstraße 2','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA47" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Hercules','Revox 2','93394YPWXEX20182','Grün','Fully',1),</v>
+      </c>
+    </row>
+    <row r="48" spans="3:37" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Schwarz','Felix','Schwarz.Felix@web.de','öpuo',1),</v>
+      </c>
+      <c r="M48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Gottesackerweg 1','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA48" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Bergsteiger','Aim','98662VKJUEI26234','Rot','Rennrad',1),</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Braun','Anna','Braun.Anna@web.de','aerv',2),</v>
+      </c>
+      <c r="M49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Weidacher Strasse 47','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA49" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Cube','Shimano','46408WXKMCJ39628','Schwarz','E-Bike',4),</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C50" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Hofmann','Pauline','Hofmann.Pauline@web.de','i,k zio.',2),</v>
+      </c>
+      <c r="M50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Rheinlandstrasse 6','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA50" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Ghost','Aggressor Sport','14732UZYBDR90018','Rot','Hardtrail',4),</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Zimmermann','Julian','Zimmermann.Julian@web.de','aervaerv',3),</v>
+      </c>
+      <c r="M51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Drumlinweg 34','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA51" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Hercules','Rockrider','85803GGQCAM14837','Weiß','E-Bike',1),</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Schmitt','Henry','Schmitt.Henry@web.de','zumgui,zg',4),</v>
+      </c>
+      <c r="M52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Ulrichstrasse 83','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA52" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Hercules','Grand Canyon','9581NQUSJO71848','Grün','Handbike',1),</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Hartmann','Tim','Hartmann.Tim@web.de','aservaer',1),</v>
+      </c>
+      <c r="M53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Am Lindenberg 2','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA53" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Bulls','Larrikin','73790XJXDZY35323','Silber','Fully',4),</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C54" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Köhler','Karl','Köhler.Karl@web.de','rastnhsrjsz',2),</v>
+      </c>
+      <c r="M54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Ahornhöhe 2','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA54" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Ghost','Kaimarte','95080FROGEG51911','Silber','E-Bike',3),</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Walter','Friedrich','Walter.Friedrich@web.de','dtzndtzns',2),</v>
+      </c>
+      <c r="M55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Ostbahnhofstraße','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA55" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Cube','Bikestar','73401YPRIJY82717','Schwarz','Kinderrad',4),</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Schulze','Peter','Schulze.Peter@web.de','sdzmstzmn',2),</v>
+      </c>
+      <c r="M56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Jörgstraße 2','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA56" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Ghost','Pulsar','77703ZTFSHH11900','Rot','E-Bike',1),</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Lang','Quirin','Lang.Quirin@web.de','tbaebabt',1),</v>
+      </c>
+      <c r="M57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Alte Bleiche 53','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA57" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Cube','NS Clash','68549LSWMXM53005','Silber','Fatbike',3),</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Weiß','Selma','Weiß.Selma@web.de','wr4hjta',4),</v>
+      </c>
+      <c r="M58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Saarlandstrasse 76','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA58" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Hercules','X Strada','17656TNXIYU12541','Schwarz','Dirtbike',1),</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Jung','Maya','Jung.Maya@web.de','aergaerg',1),</v>
+      </c>
+      <c r="M59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Straboweg 192','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA59" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Bulls','T500','45409IPLOPT42011','Schwarz','Hardtrail',3),</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C60" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Möller','Mia','Möller.Mia@web.de','edrhaer',4),</v>
+      </c>
+      <c r="M60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Siedlerweg 5','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA60" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Ghost','Marlin 4','49386NXBHRC39151','Grün','Fully',1),</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Hahn','Liam','Hahn.Liam@web.de','ethaerth',4),</v>
+      </c>
+      <c r="M61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Am Alpenblick 98','87435','Kempten','Rechnungsadresse'),</v>
+      </c>
+      <c r="AA61" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Hercules','Cross Blunt','60202YJTRIE95977','Weiß','Fatbike',4),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="M62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Kirchenweg 2','87435','Kempten','Lieferadresse'),</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C63" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>('Möller','Stefan','Möller.Stefan@web.de','rgervedfrve',3),</v>
+      </c>
+      <c r="M63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>('Siedlerweg 5','87435','Kempten','Liefer- &amp; Rechnungsadresse'),</v>
+      </c>
+      <c r="AA63" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>('Ghost','Marlin 5 Azure','35121YNSVYT14686','Silber','Rennrad',3),</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
